--- a/storage/app/excelBlanco/Requerimiento.xlsx
+++ b/storage/app/excelBlanco/Requerimiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\RES\storage\app\excelBlanco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED7BADF-2C72-4857-AA9E-359F7073B512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215BA917-C9E4-40D1-8B54-3B311A292455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,7 +688,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -719,89 +719,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -816,12 +735,6 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -829,9 +742,6 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -839,80 +749,12 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -944,64 +786,77 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1020,35 +875,179 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1074,15 +1073,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>156998</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>72916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>858278</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>193934</xdr:rowOff>
+      <xdr:colOff>958126</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1111,8 +1110,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="57150"/>
-          <a:ext cx="797318" cy="632084"/>
+          <a:off x="619453" y="72916"/>
+          <a:ext cx="801128" cy="625515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1445,10 +1444,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH55"/>
+  <dimension ref="A1:AH56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="145" zoomScaleNormal="150" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:AD20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScale="145" zoomScaleNormal="150" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1460,13 +1459,15 @@
     <col min="6" max="6" width="2.69921875" customWidth="1"/>
     <col min="7" max="7" width="3.09765625" customWidth="1"/>
     <col min="8" max="8" width="4.5" customWidth="1"/>
-    <col min="9" max="19" width="2.69921875" customWidth="1"/>
+    <col min="9" max="13" width="2.69921875" customWidth="1"/>
+    <col min="14" max="14" width="3.296875" customWidth="1"/>
+    <col min="15" max="19" width="2.69921875" customWidth="1"/>
     <col min="20" max="20" width="3" customWidth="1"/>
     <col min="21" max="21" width="4.09765625" customWidth="1"/>
-    <col min="22" max="22" width="2.69921875" customWidth="1"/>
-    <col min="23" max="23" width="3.796875" customWidth="1"/>
+    <col min="22" max="22" width="3.19921875" customWidth="1"/>
+    <col min="23" max="23" width="3.59765625" customWidth="1"/>
     <col min="24" max="25" width="2.69921875" customWidth="1"/>
-    <col min="26" max="26" width="3.09765625" customWidth="1"/>
+    <col min="26" max="26" width="5" customWidth="1"/>
     <col min="27" max="27" width="3.69921875" customWidth="1"/>
     <col min="28" max="30" width="2.69921875" customWidth="1"/>
     <col min="31" max="31" width="0.69921875" customWidth="1"/>
@@ -1474,1959 +1475,2085 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="6" customHeight="1">
-      <c r="A1" s="100"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="99"/>
+      <c r="A1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="50"/>
     </row>
     <row r="2" spans="1:34" ht="16.2" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="105" t="s">
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="100"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="49"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
     </row>
     <row r="3" spans="1:34" ht="16.2" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="105" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="100"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="49"/>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
     </row>
     <row r="4" spans="1:34" ht="16.2" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="105" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="105"/>
-      <c r="AC4" s="105"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="100"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="49"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
     </row>
     <row r="5" spans="1:34" ht="4.95" customHeight="1">
-      <c r="A5" s="103"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="101"/>
-      <c r="U5" s="101"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="101"/>
-      <c r="Z5" s="101"/>
-      <c r="AA5" s="101"/>
-      <c r="AB5" s="101"/>
-      <c r="AC5" s="101"/>
-      <c r="AD5" s="101"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
       <c r="AE5" s="2"/>
     </row>
     <row r="6" spans="1:34" ht="18" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="118" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="120"/>
-      <c r="X6" s="122"/>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="122"/>
-      <c r="AB6" s="122"/>
-      <c r="AC6" s="122"/>
-      <c r="AD6" s="122"/>
-      <c r="AE6" s="19"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="75"/>
     </row>
     <row r="7" spans="1:34" ht="18" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="117" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="117"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="117"/>
-      <c r="U7" s="117"/>
-      <c r="V7" s="117"/>
-      <c r="W7" s="117"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="19"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="75"/>
     </row>
     <row r="8" spans="1:34" ht="18" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="105"/>
-      <c r="AA8" s="105"/>
-      <c r="AB8" s="105"/>
-      <c r="AC8" s="105"/>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="19"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="75"/>
     </row>
     <row r="9" spans="1:34" ht="18" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="33" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="122"/>
-      <c r="AA9" s="122"/>
-      <c r="AB9" s="122"/>
-      <c r="AC9" s="122"/>
-      <c r="AD9" s="122"/>
-      <c r="AE9" s="19"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="75"/>
     </row>
     <row r="10" spans="1:34" ht="4.95" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
       <c r="AE10" s="2"/>
     </row>
     <row r="11" spans="1:34" ht="10.050000000000001" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="16"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="100"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="100"/>
+      <c r="Y11" s="100"/>
+      <c r="Z11" s="100"/>
+      <c r="AA11" s="100"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="53"/>
     </row>
     <row r="12" spans="1:34" ht="24">
-      <c r="A12" s="17"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="125" t="s">
+      <c r="A12" s="90"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="125" t="s">
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="125"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="125"/>
-      <c r="R12" s="125"/>
-      <c r="S12" s="125"/>
-      <c r="T12" s="125"/>
-      <c r="U12" s="125"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="126" t="s">
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="X12" s="126"/>
-      <c r="Y12" s="126"/>
-      <c r="Z12" s="126"/>
-      <c r="AA12" s="126"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="16"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="105"/>
+      <c r="AA12" s="105"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="53"/>
     </row>
     <row r="13" spans="1:34" ht="24">
-      <c r="A13" s="17"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="123"/>
-      <c r="U13" s="123"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="124"/>
-      <c r="X13" s="124"/>
-      <c r="Y13" s="124"/>
-      <c r="Z13" s="124"/>
-      <c r="AA13" s="124"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="16"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="101"/>
+      <c r="Y13" s="101"/>
+      <c r="Z13" s="101"/>
+      <c r="AA13" s="101"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="53"/>
     </row>
     <row r="14" spans="1:34" ht="10.050000000000001" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="16"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="53"/>
     </row>
     <row r="15" spans="1:34" ht="24">
-      <c r="A15" s="17"/>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="90"/>
+      <c r="B15" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="16"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="53"/>
     </row>
     <row r="16" spans="1:34" ht="24.6" thickBot="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47" t="s">
+      <c r="A16" s="90"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="127"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="128"/>
-      <c r="AE16" s="16"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="53"/>
     </row>
     <row r="17" spans="1:31" ht="24.6" thickBot="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47" t="s">
+      <c r="A17" s="90"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="129"/>
-      <c r="V17" s="129"/>
-      <c r="W17" s="129"/>
-      <c r="X17" s="129"/>
-      <c r="Y17" s="129"/>
-      <c r="Z17" s="129"/>
-      <c r="AA17" s="129"/>
-      <c r="AB17" s="129"/>
-      <c r="AC17" s="129"/>
-      <c r="AD17" s="130"/>
-      <c r="AE17" s="16"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="96"/>
+      <c r="AA17" s="96"/>
+      <c r="AB17" s="96"/>
+      <c r="AC17" s="96"/>
+      <c r="AD17" s="97"/>
+      <c r="AE17" s="53"/>
     </row>
     <row r="18" spans="1:31" ht="24.6" thickBot="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47" t="s">
+      <c r="A18" s="90"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129"/>
-      <c r="P18" s="129"/>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="129"/>
-      <c r="S18" s="129"/>
-      <c r="T18" s="129"/>
-      <c r="U18" s="129"/>
-      <c r="V18" s="129"/>
-      <c r="W18" s="129"/>
-      <c r="X18" s="129"/>
-      <c r="Y18" s="129"/>
-      <c r="Z18" s="129"/>
-      <c r="AA18" s="129"/>
-      <c r="AB18" s="129"/>
-      <c r="AC18" s="129"/>
-      <c r="AD18" s="130"/>
-      <c r="AE18" s="16"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="96"/>
+      <c r="W18" s="96"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="96"/>
+      <c r="Z18" s="96"/>
+      <c r="AA18" s="96"/>
+      <c r="AB18" s="96"/>
+      <c r="AC18" s="96"/>
+      <c r="AD18" s="97"/>
+      <c r="AE18" s="53"/>
     </row>
     <row r="19" spans="1:31" ht="24.6" thickBot="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47" t="s">
+      <c r="A19" s="90"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="129"/>
-      <c r="S19" s="129"/>
-      <c r="T19" s="129"/>
-      <c r="U19" s="129"/>
-      <c r="V19" s="129"/>
-      <c r="W19" s="129"/>
-      <c r="X19" s="129"/>
-      <c r="Y19" s="129"/>
-      <c r="Z19" s="129"/>
-      <c r="AA19" s="129"/>
-      <c r="AB19" s="129"/>
-      <c r="AC19" s="129"/>
-      <c r="AD19" s="130"/>
-      <c r="AE19" s="16"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="96"/>
+      <c r="X19" s="96"/>
+      <c r="Y19" s="96"/>
+      <c r="Z19" s="96"/>
+      <c r="AA19" s="96"/>
+      <c r="AB19" s="96"/>
+      <c r="AC19" s="96"/>
+      <c r="AD19" s="97"/>
+      <c r="AE19" s="53"/>
     </row>
     <row r="20" spans="1:31" ht="24.6" thickBot="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47" t="s">
+      <c r="A20" s="90"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="129"/>
-      <c r="S20" s="129"/>
-      <c r="T20" s="129"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="129"/>
-      <c r="W20" s="129"/>
-      <c r="X20" s="129"/>
-      <c r="Y20" s="129"/>
-      <c r="Z20" s="129"/>
-      <c r="AA20" s="129"/>
-      <c r="AB20" s="129"/>
-      <c r="AC20" s="129"/>
-      <c r="AD20" s="130"/>
-      <c r="AE20" s="16"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="96"/>
+      <c r="W20" s="96"/>
+      <c r="X20" s="96"/>
+      <c r="Y20" s="96"/>
+      <c r="Z20" s="96"/>
+      <c r="AA20" s="96"/>
+      <c r="AB20" s="96"/>
+      <c r="AC20" s="96"/>
+      <c r="AD20" s="97"/>
+      <c r="AE20" s="53"/>
     </row>
     <row r="21" spans="1:31" ht="24">
-      <c r="A21" s="17"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="49"/>
-      <c r="AE21" s="16"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="53"/>
     </row>
     <row r="22" spans="1:31" ht="24">
-      <c r="A22" s="17"/>
-      <c r="B22" s="51" t="s">
+      <c r="A22" s="90"/>
+      <c r="B22" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="54" t="s">
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="W22" s="55"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="54" t="s">
+      <c r="W22" s="26"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="16"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="53"/>
     </row>
     <row r="23" spans="1:31" ht="10.050000000000001" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="16"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="53"/>
     </row>
     <row r="24" spans="1:31" ht="24">
-      <c r="A24" s="17"/>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="90"/>
+      <c r="B24" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="54" t="s">
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="W24" s="55"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="54" t="s">
+      <c r="W24" s="26"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="47"/>
-      <c r="AC24" s="47"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="16"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="53"/>
     </row>
     <row r="25" spans="1:31" ht="10.050000000000001" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="47"/>
-      <c r="AC25" s="47"/>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="16"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="53"/>
     </row>
     <row r="26" spans="1:31" ht="24">
-      <c r="A26" s="17"/>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="90"/>
+      <c r="B26" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="54" t="s">
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="W26" s="55"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="54" t="s">
+      <c r="W26" s="26"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="47"/>
-      <c r="AC26" s="47"/>
-      <c r="AD26" s="49"/>
-      <c r="AE26" s="16"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="53"/>
     </row>
     <row r="27" spans="1:31" ht="10.050000000000001" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="54"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="47"/>
-      <c r="AC27" s="47"/>
-      <c r="AD27" s="49"/>
-      <c r="AE27" s="16"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="53"/>
     </row>
     <row r="28" spans="1:31" ht="24">
-      <c r="A28" s="17"/>
-      <c r="B28" s="51" t="s">
+      <c r="A28" s="90"/>
+      <c r="B28" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="54" t="s">
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="W28" s="55"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="54" t="s">
+      <c r="W28" s="26"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA28" s="56"/>
-      <c r="AB28" s="47"/>
-      <c r="AC28" s="47"/>
-      <c r="AD28" s="49"/>
-      <c r="AE28" s="16"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="53"/>
     </row>
     <row r="29" spans="1:31" ht="19.95" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="47"/>
-      <c r="AB29" s="47"/>
-      <c r="AC29" s="47"/>
-      <c r="AD29" s="49"/>
-      <c r="AE29" s="16"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="53"/>
     </row>
     <row r="30" spans="1:31" ht="24">
-      <c r="A30" s="17"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="61" t="s">
+      <c r="A30" s="90"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="61" t="s">
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="S30" s="61"/>
-      <c r="T30" s="61"/>
-      <c r="U30" s="61"/>
-      <c r="V30" s="61"/>
-      <c r="W30" s="61"/>
-      <c r="X30" s="61"/>
-      <c r="Y30" s="61"/>
-      <c r="Z30" s="61"/>
-      <c r="AA30" s="47"/>
-      <c r="AB30" s="47"/>
-      <c r="AC30" s="47"/>
-      <c r="AD30" s="49"/>
-      <c r="AE30" s="16"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="103"/>
+      <c r="W30" s="103"/>
+      <c r="X30" s="103"/>
+      <c r="Y30" s="103"/>
+      <c r="Z30" s="103"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="53"/>
     </row>
     <row r="31" spans="1:31" ht="24">
-      <c r="A31" s="16"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="47"/>
-      <c r="AB31" s="47"/>
-      <c r="AC31" s="47"/>
-      <c r="AD31" s="49"/>
-      <c r="AE31" s="16"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="102"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="53"/>
     </row>
     <row r="32" spans="1:31" ht="24">
-      <c r="A32" s="16"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="62"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="62"/>
-      <c r="AA32" s="47"/>
-      <c r="AB32" s="47"/>
-      <c r="AC32" s="47"/>
-      <c r="AD32" s="49"/>
-      <c r="AE32" s="16"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="102"/>
+      <c r="S32" s="102"/>
+      <c r="T32" s="102"/>
+      <c r="U32" s="102"/>
+      <c r="V32" s="102"/>
+      <c r="W32" s="102"/>
+      <c r="X32" s="102"/>
+      <c r="Y32" s="102"/>
+      <c r="Z32" s="102"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="53"/>
     </row>
     <row r="33" spans="1:31" ht="24">
-      <c r="A33" s="16"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="47"/>
-      <c r="AB33" s="47"/>
-      <c r="AC33" s="47"/>
-      <c r="AD33" s="49"/>
-      <c r="AE33" s="16"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="102"/>
+      <c r="X33" s="102"/>
+      <c r="Y33" s="102"/>
+      <c r="Z33" s="102"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="53"/>
     </row>
     <row r="34" spans="1:31" ht="24">
-      <c r="A34" s="16"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
-      <c r="W34" s="62"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="62"/>
-      <c r="AA34" s="47"/>
-      <c r="AB34" s="47"/>
-      <c r="AC34" s="47"/>
-      <c r="AD34" s="49"/>
-      <c r="AE34" s="16"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="102"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="102"/>
+      <c r="S34" s="102"/>
+      <c r="T34" s="102"/>
+      <c r="U34" s="102"/>
+      <c r="V34" s="102"/>
+      <c r="W34" s="102"/>
+      <c r="X34" s="102"/>
+      <c r="Y34" s="102"/>
+      <c r="Z34" s="102"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="53"/>
     </row>
     <row r="35" spans="1:31" ht="16.2" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
-      <c r="Y35" s="65"/>
-      <c r="Z35" s="65"/>
-      <c r="AA35" s="65"/>
-      <c r="AB35" s="65"/>
-      <c r="AC35" s="65"/>
-      <c r="AD35" s="66"/>
-      <c r="AE35" s="16"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="32"/>
+      <c r="AC35" s="32"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="53"/>
     </row>
     <row r="36" spans="1:31" ht="4.95" customHeight="1">
       <c r="A36" s="9"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="67"/>
-      <c r="V36" s="67"/>
-      <c r="W36" s="67"/>
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
-      <c r="Z36" s="67"/>
-      <c r="AA36" s="67"/>
-      <c r="AB36" s="67"/>
-      <c r="AC36" s="67"/>
-      <c r="AD36" s="67"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="118"/>
+      <c r="M36" s="118"/>
+      <c r="N36" s="118"/>
+      <c r="O36" s="118"/>
+      <c r="P36" s="118"/>
+      <c r="Q36" s="118"/>
+      <c r="R36" s="118"/>
+      <c r="S36" s="118"/>
+      <c r="T36" s="118"/>
+      <c r="U36" s="118"/>
+      <c r="V36" s="118"/>
+      <c r="W36" s="118"/>
+      <c r="X36" s="118"/>
+      <c r="Y36" s="118"/>
+      <c r="Z36" s="118"/>
+      <c r="AA36" s="118"/>
+      <c r="AB36" s="118"/>
+      <c r="AC36" s="118"/>
+      <c r="AD36" s="118"/>
       <c r="AE36" s="9"/>
     </row>
     <row r="37" spans="1:31" ht="16.2" customHeight="1">
       <c r="A37" s="9"/>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="69"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="69"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="69"/>
-      <c r="W37" s="69"/>
-      <c r="X37" s="69"/>
-      <c r="Y37" s="69"/>
-      <c r="Z37" s="69"/>
-      <c r="AA37" s="69"/>
-      <c r="AB37" s="69"/>
-      <c r="AC37" s="69"/>
-      <c r="AD37" s="70"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="116"/>
+      <c r="P37" s="116"/>
+      <c r="Q37" s="116"/>
+      <c r="R37" s="116"/>
+      <c r="S37" s="116"/>
+      <c r="T37" s="116"/>
+      <c r="U37" s="116"/>
+      <c r="V37" s="116"/>
+      <c r="W37" s="116"/>
+      <c r="X37" s="116"/>
+      <c r="Y37" s="116"/>
+      <c r="Z37" s="116"/>
+      <c r="AA37" s="116"/>
+      <c r="AB37" s="116"/>
+      <c r="AC37" s="116"/>
+      <c r="AD37" s="117"/>
       <c r="AE37" s="9"/>
     </row>
     <row r="38" spans="1:31" ht="16.2" customHeight="1">
       <c r="A38" s="9"/>
-      <c r="B38" s="106" t="s">
+      <c r="B38" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
-      <c r="Y38" s="72"/>
-      <c r="Z38" s="72"/>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="72"/>
-      <c r="AC38" s="72"/>
-      <c r="AD38" s="72"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
       <c r="AE38" s="9"/>
     </row>
     <row r="39" spans="1:31" ht="16.2" customHeight="1">
       <c r="A39" s="9"/>
-      <c r="B39" s="106" t="s">
+      <c r="B39" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="71" t="s">
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="R39" s="71"/>
-      <c r="S39" s="71"/>
-      <c r="T39" s="71"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
-      <c r="X39" s="72"/>
-      <c r="Y39" s="72"/>
-      <c r="Z39" s="72"/>
-      <c r="AA39" s="72"/>
-      <c r="AB39" s="72"/>
-      <c r="AC39" s="72"/>
-      <c r="AD39" s="72"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
       <c r="AE39" s="9"/>
     </row>
     <row r="40" spans="1:31" ht="20.399999999999999">
-      <c r="A40" s="16"/>
-      <c r="B40" s="107" t="s">
+      <c r="A40" s="53"/>
+      <c r="B40" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="71" t="s">
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="R40" s="71"/>
-      <c r="S40" s="71"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="71"/>
-      <c r="V40" s="71"/>
-      <c r="W40" s="71"/>
-      <c r="X40" s="72"/>
-      <c r="Y40" s="72"/>
-      <c r="Z40" s="72"/>
-      <c r="AA40" s="72"/>
-      <c r="AB40" s="72"/>
-      <c r="AC40" s="72"/>
-      <c r="AD40" s="72"/>
-      <c r="AE40" s="16"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="53"/>
     </row>
     <row r="41" spans="1:31" ht="20.399999999999999">
-      <c r="A41" s="16"/>
-      <c r="B41" s="106" t="s">
+      <c r="A41" s="53"/>
+      <c r="B41" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="71" t="s">
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="R41" s="71"/>
-      <c r="S41" s="71"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="72"/>
-      <c r="V41" s="72"/>
-      <c r="W41" s="72"/>
-      <c r="X41" s="72"/>
-      <c r="Y41" s="72"/>
-      <c r="Z41" s="72"/>
-      <c r="AA41" s="72"/>
-      <c r="AB41" s="72"/>
-      <c r="AC41" s="72"/>
-      <c r="AD41" s="72"/>
-      <c r="AE41" s="16"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="59"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="59"/>
+      <c r="Y41" s="59"/>
+      <c r="Z41" s="59"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="53"/>
     </row>
     <row r="42" spans="1:31" ht="20.399999999999999">
-      <c r="A42" s="16"/>
-      <c r="B42" s="106" t="s">
+      <c r="A42" s="53"/>
+      <c r="B42" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="72"/>
-      <c r="R42" s="72"/>
-      <c r="S42" s="72"/>
-      <c r="T42" s="72"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="72"/>
-      <c r="X42" s="72"/>
-      <c r="Y42" s="72"/>
-      <c r="Z42" s="72"/>
-      <c r="AA42" s="72"/>
-      <c r="AB42" s="72"/>
-      <c r="AC42" s="72"/>
-      <c r="AD42" s="72"/>
-      <c r="AE42" s="16"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="59"/>
+      <c r="Z42" s="59"/>
+      <c r="AA42" s="59"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="59"/>
+      <c r="AD42" s="59"/>
+      <c r="AE42" s="53"/>
     </row>
     <row r="43" spans="1:31" ht="20.399999999999999">
-      <c r="A43" s="16"/>
-      <c r="B43" s="106" t="s">
+      <c r="A43" s="53"/>
+      <c r="B43" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="71" t="s">
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="R43" s="71"/>
-      <c r="S43" s="71"/>
-      <c r="T43" s="72"/>
-      <c r="U43" s="72"/>
-      <c r="V43" s="72"/>
-      <c r="W43" s="72"/>
-      <c r="X43" s="72"/>
-      <c r="Y43" s="72"/>
-      <c r="Z43" s="72"/>
-      <c r="AA43" s="72"/>
-      <c r="AB43" s="72"/>
-      <c r="AC43" s="72"/>
-      <c r="AD43" s="72"/>
-      <c r="AE43" s="16"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="59"/>
+      <c r="U43" s="59"/>
+      <c r="V43" s="59"/>
+      <c r="W43" s="59"/>
+      <c r="X43" s="59"/>
+      <c r="Y43" s="59"/>
+      <c r="Z43" s="59"/>
+      <c r="AA43" s="59"/>
+      <c r="AB43" s="59"/>
+      <c r="AC43" s="59"/>
+      <c r="AD43" s="59"/>
+      <c r="AE43" s="53"/>
     </row>
     <row r="44" spans="1:31" ht="20.399999999999999">
-      <c r="A44" s="16"/>
-      <c r="B44" s="106" t="s">
+      <c r="A44" s="53"/>
+      <c r="B44" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="71" t="s">
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="59"/>
+      <c r="Q44" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="R44" s="71"/>
-      <c r="S44" s="71"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="72"/>
-      <c r="Y44" s="72"/>
-      <c r="Z44" s="72"/>
-      <c r="AA44" s="72"/>
-      <c r="AB44" s="72"/>
-      <c r="AC44" s="72"/>
-      <c r="AD44" s="72"/>
-      <c r="AE44" s="16"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="59"/>
+      <c r="U44" s="59"/>
+      <c r="V44" s="59"/>
+      <c r="W44" s="59"/>
+      <c r="X44" s="59"/>
+      <c r="Y44" s="59"/>
+      <c r="Z44" s="59"/>
+      <c r="AA44" s="59"/>
+      <c r="AB44" s="59"/>
+      <c r="AC44" s="59"/>
+      <c r="AD44" s="59"/>
+      <c r="AE44" s="53"/>
     </row>
     <row r="45" spans="1:31" ht="20.399999999999999">
-      <c r="A45" s="16"/>
-      <c r="B45" s="110" t="s">
+      <c r="A45" s="53"/>
+      <c r="B45" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="74"/>
-      <c r="P45" s="75"/>
-      <c r="Q45" s="71" t="s">
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="108"/>
+      <c r="Q45" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="R45" s="71"/>
-      <c r="S45" s="71"/>
-      <c r="T45" s="72"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="72"/>
-      <c r="W45" s="72"/>
-      <c r="X45" s="72"/>
-      <c r="Y45" s="72"/>
-      <c r="Z45" s="72"/>
-      <c r="AA45" s="72"/>
-      <c r="AB45" s="72"/>
-      <c r="AC45" s="72"/>
-      <c r="AD45" s="72"/>
-      <c r="AE45" s="16"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="59"/>
+      <c r="U45" s="59"/>
+      <c r="V45" s="59"/>
+      <c r="W45" s="59"/>
+      <c r="X45" s="59"/>
+      <c r="Y45" s="59"/>
+      <c r="Z45" s="59"/>
+      <c r="AA45" s="59"/>
+      <c r="AB45" s="59"/>
+      <c r="AC45" s="59"/>
+      <c r="AD45" s="59"/>
+      <c r="AE45" s="53"/>
     </row>
     <row r="46" spans="1:31" ht="20.399999999999999">
-      <c r="A46" s="16"/>
-      <c r="B46" s="106" t="s">
+      <c r="A46" s="53"/>
+      <c r="B46" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="106"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="71" t="s">
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="71"/>
-      <c r="V46" s="76"/>
-      <c r="W46" s="76"/>
-      <c r="X46" s="76"/>
-      <c r="Y46" s="76"/>
-      <c r="Z46" s="76"/>
-      <c r="AA46" s="76"/>
-      <c r="AB46" s="76"/>
-      <c r="AC46" s="76"/>
-      <c r="AD46" s="76"/>
-      <c r="AE46" s="16"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
+      <c r="V46" s="67"/>
+      <c r="W46" s="67"/>
+      <c r="X46" s="67"/>
+      <c r="Y46" s="67"/>
+      <c r="Z46" s="67"/>
+      <c r="AA46" s="67"/>
+      <c r="AB46" s="67"/>
+      <c r="AC46" s="67"/>
+      <c r="AD46" s="67"/>
+      <c r="AE46" s="53"/>
     </row>
     <row r="47" spans="1:31" ht="20.399999999999999">
-      <c r="A47" s="16"/>
-      <c r="B47" s="106" t="s">
+      <c r="A47" s="53"/>
+      <c r="B47" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="77"/>
-      <c r="N47" s="77"/>
-      <c r="O47" s="77"/>
-      <c r="P47" s="77"/>
-      <c r="Q47" s="71" t="s">
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="R47" s="71"/>
-      <c r="S47" s="71"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="71"/>
-      <c r="V47" s="77"/>
-      <c r="W47" s="77"/>
-      <c r="X47" s="77"/>
-      <c r="Y47" s="77"/>
-      <c r="Z47" s="77"/>
-      <c r="AA47" s="77"/>
-      <c r="AB47" s="77"/>
-      <c r="AC47" s="77"/>
-      <c r="AD47" s="77"/>
-      <c r="AE47" s="16"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="54"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="68"/>
+      <c r="X47" s="68"/>
+      <c r="Y47" s="68"/>
+      <c r="Z47" s="68"/>
+      <c r="AA47" s="68"/>
+      <c r="AB47" s="68"/>
+      <c r="AC47" s="68"/>
+      <c r="AD47" s="68"/>
+      <c r="AE47" s="53"/>
     </row>
     <row r="48" spans="1:31" ht="20.399999999999999">
-      <c r="A48" s="16"/>
-      <c r="B48" s="106" t="s">
+      <c r="A48" s="53"/>
+      <c r="B48" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="106"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="76"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="76"/>
-      <c r="P48" s="76"/>
-      <c r="Q48" s="71" t="s">
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="67"/>
+      <c r="O48" s="67"/>
+      <c r="P48" s="67"/>
+      <c r="Q48" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="R48" s="71"/>
-      <c r="S48" s="71"/>
-      <c r="T48" s="71"/>
-      <c r="U48" s="71"/>
-      <c r="V48" s="72"/>
-      <c r="W48" s="72"/>
-      <c r="X48" s="72"/>
-      <c r="Y48" s="72"/>
-      <c r="Z48" s="72"/>
-      <c r="AA48" s="72"/>
-      <c r="AB48" s="72"/>
-      <c r="AC48" s="72"/>
-      <c r="AD48" s="72"/>
-      <c r="AE48" s="16"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="54"/>
+      <c r="V48" s="59"/>
+      <c r="W48" s="59"/>
+      <c r="X48" s="59"/>
+      <c r="Y48" s="59"/>
+      <c r="Z48" s="59"/>
+      <c r="AA48" s="59"/>
+      <c r="AB48" s="59"/>
+      <c r="AC48" s="59"/>
+      <c r="AD48" s="59"/>
+      <c r="AE48" s="53"/>
     </row>
     <row r="49" spans="1:31" ht="20.399999999999999">
-      <c r="A49" s="16"/>
-      <c r="B49" s="71" t="s">
+      <c r="A49" s="53"/>
+      <c r="B49" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="72"/>
-      <c r="M49" s="72"/>
-      <c r="N49" s="72"/>
-      <c r="O49" s="72"/>
-      <c r="P49" s="72"/>
-      <c r="Q49" s="71" t="s">
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
+      <c r="Q49" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="R49" s="71"/>
-      <c r="S49" s="71"/>
-      <c r="T49" s="71"/>
-      <c r="U49" s="71"/>
-      <c r="V49" s="78"/>
-      <c r="W49" s="79"/>
-      <c r="X49" s="79"/>
-      <c r="Y49" s="79"/>
-      <c r="Z49" s="79"/>
-      <c r="AA49" s="79"/>
-      <c r="AB49" s="79"/>
-      <c r="AC49" s="79"/>
-      <c r="AD49" s="80"/>
-      <c r="AE49" s="16"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="64"/>
+      <c r="W49" s="65"/>
+      <c r="X49" s="65"/>
+      <c r="Y49" s="65"/>
+      <c r="Z49" s="65"/>
+      <c r="AA49" s="65"/>
+      <c r="AB49" s="65"/>
+      <c r="AC49" s="65"/>
+      <c r="AD49" s="66"/>
+      <c r="AE49" s="53"/>
     </row>
     <row r="50" spans="1:31" ht="20.399999999999999">
-      <c r="A50" s="16"/>
-      <c r="B50" s="71" t="s">
+      <c r="A50" s="53"/>
+      <c r="B50" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="82" t="s">
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="83"/>
-      <c r="R50" s="83"/>
-      <c r="S50" s="83"/>
-      <c r="T50" s="83"/>
-      <c r="U50" s="83"/>
-      <c r="V50" s="114"/>
-      <c r="W50" s="114"/>
-      <c r="X50" s="114"/>
-      <c r="Y50" s="84"/>
-      <c r="Z50" s="84"/>
-      <c r="AA50" s="116"/>
-      <c r="AB50" s="116"/>
-      <c r="AC50" s="116"/>
-      <c r="AD50" s="85"/>
-      <c r="AE50" s="16"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="62"/>
+      <c r="AB50" s="62"/>
+      <c r="AC50" s="62"/>
+      <c r="AD50" s="36"/>
+      <c r="AE50" s="53"/>
     </row>
     <row r="51" spans="1:31" ht="24">
-      <c r="A51" s="16"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="84"/>
-      <c r="U51" s="113"/>
-      <c r="V51" s="113"/>
-      <c r="W51" s="113"/>
-      <c r="X51" s="89"/>
-      <c r="Y51" s="115"/>
-      <c r="Z51" s="115"/>
-      <c r="AA51" s="115"/>
-      <c r="AB51" s="89"/>
-      <c r="AC51" s="89"/>
-      <c r="AD51" s="91"/>
-      <c r="AE51" s="16"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="60"/>
+      <c r="V51" s="60"/>
+      <c r="W51" s="60"/>
+      <c r="X51" s="40"/>
+      <c r="Y51" s="61"/>
+      <c r="Z51" s="61"/>
+      <c r="AA51" s="61"/>
+      <c r="AB51" s="40"/>
+      <c r="AC51" s="40"/>
+      <c r="AD51" s="42"/>
+      <c r="AE51" s="53"/>
     </row>
     <row r="52" spans="1:31" ht="24">
-      <c r="A52" s="16"/>
-      <c r="B52" s="92" t="s">
+      <c r="A52" s="53"/>
+      <c r="B52" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="89"/>
-      <c r="L52" s="89"/>
-      <c r="M52" s="89"/>
-      <c r="N52" s="89"/>
-      <c r="O52" s="89"/>
-      <c r="P52" s="89"/>
-      <c r="Q52" s="93"/>
-      <c r="R52" s="89"/>
-      <c r="S52" s="89"/>
-      <c r="T52" s="89"/>
-      <c r="U52" s="93"/>
-      <c r="V52" s="87" t="s">
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="W52" s="88"/>
-      <c r="X52" s="89"/>
-      <c r="Y52" s="89"/>
-      <c r="Z52" s="89" t="s">
+      <c r="W52" s="39"/>
+      <c r="X52" s="40"/>
+      <c r="Y52" s="40"/>
+      <c r="Z52" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="AA52" s="90"/>
-      <c r="AB52" s="89"/>
-      <c r="AC52" s="89"/>
-      <c r="AD52" s="91"/>
-      <c r="AE52" s="16"/>
+      <c r="AA52" s="41"/>
+      <c r="AB52" s="40"/>
+      <c r="AC52" s="40"/>
+      <c r="AD52" s="42"/>
+      <c r="AE52" s="53"/>
     </row>
     <row r="53" spans="1:31" ht="24">
-      <c r="A53" s="16"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="89"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="89"/>
-      <c r="I53" s="89"/>
-      <c r="J53" s="89"/>
-      <c r="K53" s="89"/>
-      <c r="L53" s="89"/>
-      <c r="M53" s="89"/>
-      <c r="N53" s="89"/>
-      <c r="O53" s="89"/>
-      <c r="P53" s="89"/>
-      <c r="Q53" s="89"/>
-      <c r="R53" s="89"/>
-      <c r="S53" s="89"/>
-      <c r="T53" s="89"/>
-      <c r="U53" s="89"/>
-      <c r="V53" s="89"/>
-      <c r="W53" s="89"/>
-      <c r="X53" s="89"/>
-      <c r="Y53" s="89"/>
-      <c r="Z53" s="89"/>
-      <c r="AA53" s="89"/>
-      <c r="AB53" s="89"/>
-      <c r="AC53" s="89"/>
-      <c r="AD53" s="91"/>
-      <c r="AE53" s="16"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
+      <c r="X53" s="40"/>
+      <c r="Y53" s="40"/>
+      <c r="Z53" s="40"/>
+      <c r="AA53" s="40"/>
+      <c r="AB53" s="40"/>
+      <c r="AC53" s="40"/>
+      <c r="AD53" s="42"/>
+      <c r="AE53" s="53"/>
     </row>
     <row r="54" spans="1:31" ht="24">
-      <c r="A54" s="16"/>
-      <c r="B54" s="92"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="89"/>
-      <c r="J54" s="89"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="94"/>
-      <c r="M54" s="94"/>
-      <c r="N54" s="94"/>
-      <c r="O54" s="94"/>
-      <c r="P54" s="94"/>
-      <c r="Q54" s="94"/>
-      <c r="R54" s="94"/>
-      <c r="S54" s="94"/>
-      <c r="T54" s="94"/>
-      <c r="U54" s="94"/>
-      <c r="V54" s="89"/>
-      <c r="W54" s="89"/>
-      <c r="X54" s="89"/>
-      <c r="Y54" s="89"/>
-      <c r="Z54" s="89"/>
-      <c r="AA54" s="89"/>
-      <c r="AB54" s="89"/>
-      <c r="AC54" s="89"/>
-      <c r="AD54" s="91"/>
-      <c r="AE54" s="16"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="L54" s="63"/>
+      <c r="M54" s="63"/>
+      <c r="N54" s="63"/>
+      <c r="O54" s="63"/>
+      <c r="P54" s="63"/>
+      <c r="Q54" s="63"/>
+      <c r="R54" s="63"/>
+      <c r="S54" s="63"/>
+      <c r="T54" s="63"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="40"/>
+      <c r="AB54" s="40"/>
+      <c r="AC54" s="40"/>
+      <c r="AD54" s="42"/>
+      <c r="AE54" s="53"/>
     </row>
     <row r="55" spans="1:31" ht="24">
-      <c r="A55" s="2"/>
-      <c r="B55" s="95"/>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="96"/>
-      <c r="K55" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="L55" s="97"/>
-      <c r="M55" s="97"/>
-      <c r="N55" s="97"/>
-      <c r="O55" s="97"/>
-      <c r="P55" s="97"/>
-      <c r="Q55" s="97"/>
-      <c r="R55" s="97"/>
-      <c r="S55" s="97"/>
-      <c r="T55" s="97"/>
-      <c r="U55" s="96"/>
-      <c r="V55" s="96"/>
-      <c r="W55" s="96"/>
-      <c r="X55" s="96"/>
-      <c r="Y55" s="96"/>
-      <c r="Z55" s="96"/>
-      <c r="AA55" s="96"/>
-      <c r="AB55" s="96"/>
-      <c r="AC55" s="96"/>
-      <c r="AD55" s="98"/>
-      <c r="AE55" s="2"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="128"/>
+      <c r="J55" s="128"/>
+      <c r="K55" s="128"/>
+      <c r="L55" s="128"/>
+      <c r="M55" s="128"/>
+      <c r="N55" s="128"/>
+      <c r="O55" s="128"/>
+      <c r="P55" s="128"/>
+      <c r="Q55" s="128"/>
+      <c r="R55" s="128"/>
+      <c r="S55" s="128"/>
+      <c r="T55" s="128"/>
+      <c r="U55" s="128"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="47"/>
+      <c r="Y55" s="47"/>
+      <c r="Z55" s="47"/>
+      <c r="AA55" s="47"/>
+      <c r="AB55" s="47"/>
+      <c r="AC55" s="47"/>
+      <c r="AD55" s="48"/>
+      <c r="AE55" s="9"/>
+    </row>
+    <row r="56" spans="1:31" ht="4.8" customHeight="1">
+      <c r="A56" s="129"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="129"/>
+      <c r="E56" s="129"/>
+      <c r="F56" s="129"/>
+      <c r="G56" s="129"/>
+      <c r="H56" s="129"/>
+      <c r="I56" s="129"/>
+      <c r="J56" s="129"/>
+      <c r="K56" s="129"/>
+      <c r="L56" s="129"/>
+      <c r="M56" s="129"/>
+      <c r="N56" s="129"/>
+      <c r="O56" s="129"/>
+      <c r="P56" s="129"/>
+      <c r="Q56" s="129"/>
+      <c r="R56" s="129"/>
+      <c r="S56" s="129"/>
+      <c r="T56" s="129"/>
+      <c r="U56" s="129"/>
+      <c r="V56" s="129"/>
+      <c r="W56" s="129"/>
+      <c r="X56" s="129"/>
+      <c r="Y56" s="129"/>
+      <c r="Z56" s="129"/>
+      <c r="AA56" s="129"/>
+      <c r="AB56" s="129"/>
+      <c r="AC56" s="129"/>
+      <c r="AD56" s="129"/>
+      <c r="AE56" s="129"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="116">
+  <mergeCells count="118">
+    <mergeCell ref="I55:U55"/>
+    <mergeCell ref="A56:AE56"/>
+    <mergeCell ref="R31:Z32"/>
+    <mergeCell ref="F30:N30"/>
+    <mergeCell ref="F31:N32"/>
+    <mergeCell ref="R33:Z33"/>
+    <mergeCell ref="F33:N33"/>
+    <mergeCell ref="H45:P45"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B10:AD10"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:P39"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="U39:AD39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="I40:P40"/>
+    <mergeCell ref="Q40:W40"/>
+    <mergeCell ref="X40:AD40"/>
+    <mergeCell ref="B37:AD37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="J38:AD38"/>
+    <mergeCell ref="B36:AD36"/>
+    <mergeCell ref="B26:U26"/>
+    <mergeCell ref="B28:U28"/>
+    <mergeCell ref="D19:AD19"/>
+    <mergeCell ref="AE31:AE35"/>
+    <mergeCell ref="A11:A30"/>
+    <mergeCell ref="AE11:AE30"/>
+    <mergeCell ref="B15:AD15"/>
+    <mergeCell ref="D16:AD16"/>
+    <mergeCell ref="D17:AD17"/>
+    <mergeCell ref="D18:AD18"/>
+    <mergeCell ref="D20:AD20"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="F34:N34"/>
+    <mergeCell ref="R30:Z30"/>
+    <mergeCell ref="R34:Z34"/>
+    <mergeCell ref="L13:U13"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="W12:AA12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="L12:U12"/>
+    <mergeCell ref="B22:U22"/>
+    <mergeCell ref="B24:U24"/>
+    <mergeCell ref="AE6:AE9"/>
+    <mergeCell ref="Q7:W7"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="B5:AD5"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="H2:X4"/>
+    <mergeCell ref="H8:AD8"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="X6:AD6"/>
+    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="B2:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H6:P6"/>
+    <mergeCell ref="H7:P7"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="AA50:AC50"/>
+    <mergeCell ref="K54:T54"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:P44"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:AD44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:P49"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="V49:AD49"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="I48:P48"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="V48:AD48"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:P46"/>
+    <mergeCell ref="Q46:U46"/>
+    <mergeCell ref="V46:AD46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="I47:P47"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="V47:AD47"/>
+    <mergeCell ref="Q45:S45"/>
     <mergeCell ref="B1:AD1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="AE40:AE44"/>
@@ -3451,98 +3578,6 @@
     <mergeCell ref="E42:AD42"/>
     <mergeCell ref="U51:W51"/>
     <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="AA50:AC50"/>
-    <mergeCell ref="K55:T55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:P44"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:AD44"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:P49"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="V49:AD49"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="I48:P48"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="V48:AD48"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:P46"/>
-    <mergeCell ref="Q46:U46"/>
-    <mergeCell ref="V46:AD46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="I47:P47"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="V47:AD47"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="Q6:W6"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H6:P6"/>
-    <mergeCell ref="H7:P7"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="AE6:AE9"/>
-    <mergeCell ref="Q7:W7"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="B5:AD5"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="H2:X4"/>
-    <mergeCell ref="H8:AD8"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="X6:AD6"/>
-    <mergeCell ref="X7:AD7"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="B2:G4"/>
-    <mergeCell ref="AE31:AE35"/>
-    <mergeCell ref="A11:A30"/>
-    <mergeCell ref="AE11:AE30"/>
-    <mergeCell ref="B15:AD15"/>
-    <mergeCell ref="D16:AD16"/>
-    <mergeCell ref="D17:AD17"/>
-    <mergeCell ref="D18:AD18"/>
-    <mergeCell ref="D20:AD20"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="F34:N34"/>
-    <mergeCell ref="R30:Z30"/>
-    <mergeCell ref="R34:Z34"/>
-    <mergeCell ref="L13:U13"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="W12:AA12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="L12:U12"/>
-    <mergeCell ref="B22:U22"/>
-    <mergeCell ref="B24:U24"/>
-    <mergeCell ref="R31:Z32"/>
-    <mergeCell ref="F30:N30"/>
-    <mergeCell ref="F31:N32"/>
-    <mergeCell ref="R33:Z33"/>
-    <mergeCell ref="F33:N33"/>
-    <mergeCell ref="H45:P45"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B10:AD10"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:P39"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="U39:AD39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="I40:P40"/>
-    <mergeCell ref="Q40:W40"/>
-    <mergeCell ref="X40:AD40"/>
-    <mergeCell ref="B37:AD37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="J38:AD38"/>
-    <mergeCell ref="B36:AD36"/>
-    <mergeCell ref="B26:U26"/>
-    <mergeCell ref="B28:U28"/>
-    <mergeCell ref="D19:AD19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4352,48 +4387,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="51" customHeight="1">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="A1" s="120"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
     </row>
     <row r="2" spans="1:8" ht="8.25" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="125"/>
     </row>
     <row r="3" spans="1:8" ht="15.6">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="126" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
       <c r="E4" s="11" t="s">
         <v>87</v>
       </c>
@@ -4411,11 +4446,11 @@
       <c r="A5" s="13">
         <v>0</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
       <c r="E5" s="14">
         <v>44593</v>
       </c>
